--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adm-Calcrl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adm-Calcrl.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.727457666666666</v>
+        <v>15.89577633333333</v>
       </c>
       <c r="H2">
-        <v>23.182373</v>
+        <v>47.687329</v>
       </c>
       <c r="I2">
-        <v>0.1630271452636819</v>
+        <v>0.286059172443548</v>
       </c>
       <c r="J2">
-        <v>0.1630271452636819</v>
+        <v>0.2860591724435479</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.802266</v>
+        <v>33.61498366666667</v>
       </c>
       <c r="N2">
-        <v>110.406798</v>
+        <v>100.844951</v>
       </c>
       <c r="O2">
-        <v>0.4381152826760634</v>
+        <v>0.4159547139783538</v>
       </c>
       <c r="P2">
-        <v>0.4381152826760634</v>
+        <v>0.4159547139783538</v>
       </c>
       <c r="Q2">
-        <v>284.387952552406</v>
+        <v>534.3362618139865</v>
       </c>
       <c r="R2">
-        <v>2559.491572971654</v>
+        <v>4809.02635632588</v>
       </c>
       <c r="S2">
-        <v>0.07142468383106965</v>
+        <v>0.1189876612546406</v>
       </c>
       <c r="T2">
-        <v>0.07142468383106966</v>
+        <v>0.1189876612546406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.727457666666666</v>
+        <v>15.89577633333333</v>
       </c>
       <c r="H3">
-        <v>23.182373</v>
+        <v>47.687329</v>
       </c>
       <c r="I3">
-        <v>0.1630271452636819</v>
+        <v>0.286059172443548</v>
       </c>
       <c r="J3">
-        <v>0.1630271452636819</v>
+        <v>0.2860591724435479</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>102.084995</v>
       </c>
       <c r="O3">
-        <v>0.4050927773614946</v>
+        <v>0.4210695178651698</v>
       </c>
       <c r="P3">
-        <v>0.4050927773614947</v>
+        <v>0.4210695178651698</v>
       </c>
       <c r="Q3">
-        <v>262.9524924214594</v>
+        <v>540.9067491698172</v>
       </c>
       <c r="R3">
-        <v>2366.572431793134</v>
+        <v>4868.160742528355</v>
       </c>
       <c r="S3">
-        <v>0.06604111906018074</v>
+        <v>0.1204507978217142</v>
       </c>
       <c r="T3">
-        <v>0.06604111906018076</v>
+        <v>0.1204507978217142</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.727457666666666</v>
+        <v>15.89577633333333</v>
       </c>
       <c r="H4">
-        <v>23.182373</v>
+        <v>47.687329</v>
       </c>
       <c r="I4">
-        <v>0.1630271452636819</v>
+        <v>0.286059172443548</v>
       </c>
       <c r="J4">
-        <v>0.1630271452636819</v>
+        <v>0.2860591724435479</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>39.512194</v>
       </c>
       <c r="O4">
-        <v>0.1567919399624419</v>
+        <v>0.1629757681564764</v>
       </c>
       <c r="P4">
-        <v>0.156791939962442</v>
+        <v>0.1629757681564764</v>
       </c>
       <c r="Q4">
-        <v>101.7762688173735</v>
+        <v>209.3589994210918</v>
       </c>
       <c r="R4">
-        <v>915.9864193563619</v>
+        <v>1884.230994789826</v>
       </c>
       <c r="S4">
-        <v>0.02556134237243151</v>
+        <v>0.04662071336719319</v>
       </c>
       <c r="T4">
-        <v>0.02556134237243152</v>
+        <v>0.04662071336719319</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>112.283398</v>
       </c>
       <c r="I5">
-        <v>0.7896189849264272</v>
+        <v>0.6735478078679881</v>
       </c>
       <c r="J5">
-        <v>0.7896189849264271</v>
+        <v>0.673547807867988</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.802266</v>
+        <v>33.61498366666667</v>
       </c>
       <c r="N5">
-        <v>110.406798</v>
+        <v>100.844951</v>
       </c>
       <c r="O5">
-        <v>0.4381152826760634</v>
+        <v>0.4159547139783538</v>
       </c>
       <c r="P5">
-        <v>0.4381152826760634</v>
+        <v>0.4159547139783538</v>
       </c>
       <c r="Q5">
-        <v>1377.427826859956</v>
+        <v>1258.134863269278</v>
       </c>
       <c r="R5">
-        <v>12396.8504417396</v>
+        <v>11323.2137694235</v>
       </c>
       <c r="S5">
-        <v>0.3459441447874279</v>
+        <v>0.2801653857724761</v>
       </c>
       <c r="T5">
-        <v>0.3459441447874279</v>
+        <v>0.2801653857724761</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>112.283398</v>
       </c>
       <c r="I6">
-        <v>0.7896189849264272</v>
+        <v>0.6735478078679881</v>
       </c>
       <c r="J6">
-        <v>0.7896189849264271</v>
+        <v>0.673547807867988</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>102.084995</v>
       </c>
       <c r="O6">
-        <v>0.4050927773614946</v>
+        <v>0.4210695178651698</v>
       </c>
       <c r="P6">
-        <v>0.4050927773614947</v>
+        <v>0.4210695178651698</v>
       </c>
       <c r="Q6">
         <v>1273.605569268112</v>
@@ -818,10 +818,10 @@
         <v>11462.45012341301</v>
       </c>
       <c r="S6">
-        <v>0.3198689476612105</v>
+        <v>0.2836104507181157</v>
       </c>
       <c r="T6">
-        <v>0.3198689476612105</v>
+        <v>0.2836104507181157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>112.283398</v>
       </c>
       <c r="I7">
-        <v>0.7896189849264272</v>
+        <v>0.6735478078679881</v>
       </c>
       <c r="J7">
-        <v>0.7896189849264271</v>
+        <v>0.673547807867988</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>39.512194</v>
       </c>
       <c r="O7">
-        <v>0.1567919399624419</v>
+        <v>0.1629757681564764</v>
       </c>
       <c r="P7">
-        <v>0.156791939962442</v>
+        <v>0.1629757681564764</v>
       </c>
       <c r="Q7">
         <v>492.9514894172458</v>
@@ -880,10 +880,10 @@
         <v>4436.563404755212</v>
       </c>
       <c r="S7">
-        <v>0.1238058924777887</v>
+        <v>0.1097719713773962</v>
       </c>
       <c r="T7">
-        <v>0.1238058924777887</v>
+        <v>0.1097719713773961</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>6.733695</v>
       </c>
       <c r="I8">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
       <c r="J8">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.802266</v>
+        <v>33.61498366666667</v>
       </c>
       <c r="N8">
-        <v>110.406798</v>
+        <v>100.844951</v>
       </c>
       <c r="O8">
-        <v>0.4381152826760634</v>
+        <v>0.4159547139783538</v>
       </c>
       <c r="P8">
-        <v>0.4381152826760634</v>
+        <v>0.4159547139783538</v>
       </c>
       <c r="Q8">
-        <v>82.60507818429001</v>
+        <v>75.45101581377168</v>
       </c>
       <c r="R8">
-        <v>743.4457036586101</v>
+        <v>679.059142323945</v>
       </c>
       <c r="S8">
-        <v>0.02074645405756583</v>
+        <v>0.01680166695123703</v>
       </c>
       <c r="T8">
-        <v>0.02074645405756584</v>
+        <v>0.01680166695123703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>6.733695</v>
       </c>
       <c r="I9">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
       <c r="J9">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>102.084995</v>
       </c>
       <c r="O9">
-        <v>0.4050927773614946</v>
+        <v>0.4210695178651698</v>
       </c>
       <c r="P9">
-        <v>0.4050927773614947</v>
+        <v>0.4210695178651698</v>
       </c>
       <c r="Q9">
         <v>76.37880226739168</v>
@@ -1004,10 +1004,10 @@
         <v>687.4092204065249</v>
       </c>
       <c r="S9">
-        <v>0.01918271064010332</v>
+        <v>0.01700826932533982</v>
       </c>
       <c r="T9">
-        <v>0.01918271064010332</v>
+        <v>0.01700826932533982</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>6.733695</v>
       </c>
       <c r="I10">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
       <c r="J10">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>39.512194</v>
       </c>
       <c r="O10">
-        <v>0.1567919399624419</v>
+        <v>0.1629757681564764</v>
       </c>
       <c r="P10">
-        <v>0.156791939962442</v>
+        <v>0.1629757681564764</v>
       </c>
       <c r="Q10">
         <v>29.56256257520334</v>
@@ -1066,10 +1066,10 @@
         <v>266.06306317683</v>
       </c>
       <c r="S10">
-        <v>0.007424705112221697</v>
+        <v>0.006583083411887086</v>
       </c>
       <c r="T10">
-        <v>0.007424705112221698</v>
+        <v>0.006583083411887085</v>
       </c>
     </row>
   </sheetData>
